--- a/backends/interfaceDoc/apollo接口.xlsx
+++ b/backends/interfaceDoc/apollo接口.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>functionname</t>
   </si>
@@ -123,282 +123,297 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>netRecordsDepthCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>networkSoftware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adapterDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueToothDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evenProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2.CPU信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3.BIOS信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4.主板信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5.内存信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6.显卡信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1.硬盘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2.虚拟机信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3.网络配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4.网卡设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5.打印机设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-6.蓝牙设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.系统安全信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1.未安装补丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2.系统服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3.系统进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4.外连产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5.开关机时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-6.安全软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1.安全策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2.开放端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3.共享信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4.上网软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5.组信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6.用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-7.数据库信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-8.事件日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-9.用户认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.USB设备记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1.USB常规检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2.USB深度检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.上网记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1.上网记录常规检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2.上网记录深度检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.文件检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1.文件常规检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2.已删除文件恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3.文件碎片检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemSecurityInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeSwitchMachine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>securitySoftware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patchNotInstalled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service name: com.bmjc.ui, path name: /bmjc/ui, interface name: bmjc.ui; function name:updateFromTool(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service name: com.bmjc.backend, path name: /bmjc/backend, interface name: bmjc.backend; function name:reveiveFromUI(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operatingSystemInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.设备连接信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceConnectInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.安全隐患信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiddenOfSafeInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usbDeviceRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netRecordsRoutineCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netRecords</t>
+  </si>
+  <si>
+    <t>fileCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trojanCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyWord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1.威胁文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>threatDocument</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>networkWeapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netRecordsDepthCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>networkSoftware</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adapterDevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>printDevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueToothDevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evenProduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameters4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2.CPU信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3.BIOS信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-4.主板信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-5.内存信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-6.显卡信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-1.硬盘信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2.虚拟机信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3.网络配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-4.网卡设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-5.打印机设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-6.蓝牙设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.系统安全信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-1.未安装补丁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-2.系统服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-3.系统进程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-4.外连产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-5.开关机时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-6.安全软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-1.安全策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2.开放端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-3.共享信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-4.上网软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-5.组信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-6.用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-7.数据库信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-8.事件日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-9.用户认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.USB设备记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1.USB常规检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-2.USB深度检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.上网记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-1.上网记录常规检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-2.上网记录深度检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.文件检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-1.文件常规检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-2.已删除文件恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-3.文件碎片检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.木马检查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8-1.网络武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-2.威胁文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemSecurityInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemProcess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeSwitchMachine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>securitySoftware</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patchNotInstalled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>service name: com.bmjc.ui, path name: /bmjc/ui, interface name: bmjc.ui; function name:updateFromTool(String)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>service name: com.bmjc.backend, path name: /bmjc/backend, interface name: bmjc.backend; function name:reveiveFromUI(String)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operatingSystemInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.设备连接信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceConnectInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.安全隐患信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiddenOfSafeInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usbDeviceRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netRecordsRoutineCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netRecords</t>
-  </si>
-  <si>
-    <t>fileCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trojanCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseInfo</t>
+    <t>imageCheck</t>
+  </si>
+  <si>
+    <t>imageCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.图片检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-1.图片检查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -828,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -864,18 +879,18 @@
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -884,10 +899,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -900,7 +915,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -913,7 +928,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -926,7 +941,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -939,7 +954,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -960,10 +975,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -975,10 +990,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -991,10 +1006,10 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1004,10 +1019,10 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1017,10 +1032,10 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1030,10 +1045,10 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1051,13 +1066,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1066,13 +1081,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1082,10 +1097,10 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1095,10 +1110,10 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1108,10 +1123,10 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1121,10 +1136,10 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1142,10 +1157,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -1157,10 +1172,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>14</v>
@@ -1173,7 +1188,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
@@ -1186,10 +1201,10 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1199,7 +1214,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>16</v>
@@ -1212,7 +1227,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>17</v>
@@ -1225,7 +1240,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>18</v>
@@ -1238,7 +1253,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>19</v>
@@ -1251,7 +1266,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
@@ -1272,10 +1287,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>21</v>
@@ -1287,10 +1302,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>22</v>
@@ -1311,13 +1326,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1326,13 +1341,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1350,25 +1365,29 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>24</v>
@@ -1381,7 +1400,7 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>25</v>
@@ -1401,15 +1420,9 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1417,18 +1430,68 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1453,7 +1516,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>

--- a/backends/interfaceDoc/apollo接口.xlsx
+++ b/backends/interfaceDoc/apollo接口.xlsx
@@ -382,14 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>keyWord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8-1.威胁文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,6 +406,14 @@
   </si>
   <si>
     <t>9-1.图片检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +827,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1374,10 +1374,10 @@
         <v>23</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1430,16 +1430,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1467,16 +1467,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>

--- a/backends/interfaceDoc/apollo接口.xlsx
+++ b/backends/interfaceDoc/apollo接口.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
   <si>
     <t>functionname</t>
   </si>
@@ -394,26 +394,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>9.图片检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-1.图片检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>imageCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>imageCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.图片检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-1.图片检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +828,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1374,10 +1375,10 @@
         <v>23</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1439,7 +1440,7 @@
         <v>92</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1467,24 +1468,26 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
